--- a/InputFiles/CallTracker.xlsx
+++ b/InputFiles/CallTracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t xml:space="preserve">Date*  </t>
   </si>
@@ -76,55 +76,67 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>MEETING</t>
+    <t>06-26-2020</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>Adhiraaj_Singh</t>
+  </si>
+  <si>
+    <t>schandan.pisoftek@gmail.com</t>
   </si>
   <si>
     <t>Adhiraj</t>
   </si>
   <si>
-    <t>schandan.pisoftek@gmail.com</t>
+    <t>cchauhan32@gmail.com</t>
+  </si>
+  <si>
+    <t>Sector 62</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Previous Client</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Event1</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>i m making contact</t>
+  </si>
+  <si>
+    <t>A new call tracker is goint to be created</t>
+  </si>
+  <si>
+    <t>06-25-2020</t>
+  </si>
+  <si>
+    <t>ESTIMATE</t>
+  </si>
+  <si>
+    <t>Chandan</t>
   </si>
   <si>
     <t>chandan</t>
   </si>
   <si>
-    <t>schandan@pisoftek.com</t>
-  </si>
-  <si>
-    <t>Sector 62</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Contract/PO</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Event1</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>i m making contact</t>
-  </si>
-  <si>
-    <t>A new call tracker is goint to be created</t>
-  </si>
-  <si>
-    <t>ESTIMATE</t>
-  </si>
-  <si>
-    <t>Chandan</t>
   </si>
   <si>
     <t>Event2</t>
@@ -135,11 +147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,13 +179,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +216,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +237,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -226,9 +260,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,61 +300,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,13 +315,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,37 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,127 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +518,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -517,15 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,21 +584,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -597,154 +609,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,7 +1080,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1153,127 +1165,127 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="1">
-        <v>44080</v>
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>8448740496</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>8448740496</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>7048</v>
+        <v>70487</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1">
-        <v>44110</v>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>8448740496</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>8448740496</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>7045</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="schandan.pisoftek@gmail.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="schandan@pisoftek.com" tooltip="mailto:schandan@pisoftek.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="cchauhan32@gmail.com" tooltip="mailto:cchauhan32@gmail.com"/>
     <hyperlink ref="E3" r:id="rId1" display="schandan.pisoftek@gmail.com"/>
     <hyperlink ref="H3" r:id="rId1" display="schandan.pisoftek@gmail.com"/>
   </hyperlinks>
